--- a/DDAf_2024_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A30168D-8AE2-4317-B8AC-5B3B6DFF6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC25313-DFE9-4E62-B7DD-0C9870910983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CE1F4F11-6C5C-4778-BD80-CC72AE71DC45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3CCF385-C206-41E5-87BC-5DB337AB783E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47A193B-82CE-4CB4-B000-FAD5A257397A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941AC622-7EDC-4982-8475-983422868CDE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1543,16 +1543,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="42" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1598,7 +1598,7 @@
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.49678587868409002</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>2.5689278759472902</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1.95940882656256</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>1.2182113783970601</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1.7725314150006699</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>5.5728431990143203</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0.99073496433226005</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.36624072070808</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>2.1972770198900302</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>56</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>1.04394302986401</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>58</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.38253749470888998</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>2.95634546172694</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>1.9600598700899099</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>-0.94254955933189999</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>-9.1269730117799999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1.5270353149503999</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1.750318816144</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>-2.840332045242</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>74</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.7309313511751</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>76</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>1.47911915763079</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1.0425315847919301</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>2.4425775935233101</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>81</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>4.2079991422460097</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>83</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>85</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>4.2975704472007399</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3.28040130060436</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>89</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>2.2083897852296102</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>91</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>3.36784664664955</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>93</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>4.9505368852484697</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>95</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>3.2017434760501602</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>97</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>1.1235455019973799</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>99</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>3.87554521305369</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>101</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>3.3222177180954899</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>103</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>3.4501476493352499</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>105</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>4.0693134576610399</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3.5523606048563501</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>108</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>1.1243306247465501</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>110</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>3.50763355019892</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>112</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>2.45677537914362</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>114</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>1.7293612954470301</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>116</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>2.4770683127479698</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>0.76597412802464004</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>58</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>2.7082081116578798</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>121</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>3.3485611861310098</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>123</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>2.61914219830786</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>125</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>3.6214670288455602</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>127</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>3.6186426063528101</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>129</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>2.7533242432026301</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>131</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>2.9661004830745998</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>133</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>3.2771933687052899</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>135</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>2.65719043413764</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>137</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>4.18146949135072</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>139</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>1.7306289037357701</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>141</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>2.1082714570015701</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>143</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>0.85820525911262002</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>145</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>3.3511954318001398</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>147</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>2.4482623251650901</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>149</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>3.17276239522903</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
         <v>151</v>
@@ -9456,7 +9456,7 @@
         <v>1.66223965027015</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
       <c r="B62" s="48" t="s">
         <v>152</v>
@@ -9585,7 +9585,7 @@
         <v>1.83922469938989</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="52" t="s">
         <v>153</v>
@@ -9714,7 +9714,7 @@
         <v>2.5455736705579399</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
       <c r="B64" s="57" t="s">
         <v>154</v>
@@ -9843,7 +9843,7 @@
         <v>1.8685511790000899</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
       <c r="B65" s="52" t="s">
         <v>155</v>
@@ -9972,7 +9972,7 @@
         <v>3.92618870865642</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="56"/>
       <c r="B66" s="64" t="s">
         <v>156</v>
@@ -10101,7 +10101,7 @@
         <v>2.2641179127830502</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
       <c r="B67" s="52" t="s">
         <v>157</v>
@@ -10230,7 +10230,7 @@
         <v>2.7588716215859002</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="52" t="s">
         <v>158</v>
@@ -10359,7 +10359,7 @@
         <v>2.1207946145085601</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
       <c r="B69" s="52" t="s">
         <v>159</v>
@@ -10488,7 +10488,7 @@
         <v>3.0891373254991401</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
       <c r="B70" s="52" t="s">
         <v>160</v>
@@ -10617,7 +10617,7 @@
         <v>1.1008397479118199</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
       <c r="B71" s="52" t="s">
         <v>161</v>
@@ -10746,7 +10746,7 @@
         <v>1.6622396502701</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
       <c r="B72" s="52" t="s">
         <v>162</v>
@@ -10875,7 +10875,7 @@
         <v>3.6588339663832699</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
       <c r="B73" s="52" t="s">
         <v>163</v>
@@ -11004,7 +11004,7 @@
         <v>0.71565255287924001</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
       <c r="B74" s="52" t="s">
         <v>163</v>
@@ -11133,7 +11133,7 @@
         <v>1.6144921921742701</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="52" t="s">
         <v>164</v>
@@ -11262,7 +11262,7 @@
         <v>1.6122799282376901</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="68" t="s">
         <v>165</v>
@@ -11391,7 +11391,7 @@
         <v>4.0062930350052604</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
       <c r="B77" s="52" t="s">
         <v>166</v>
@@ -11520,7 +11520,7 @@
         <v>1.99665714567601</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
       <c r="B78" s="52" t="s">
         <v>166</v>
@@ -11649,7 +11649,7 @@
         <v>1.80162922641551</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="56"/>
       <c r="B79" s="64" t="s">
         <v>167</v>
@@ -11778,7 +11778,7 @@
         <v>1.62121563629407</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
       <c r="B80" s="52" t="s">
         <v>168</v>
@@ -11907,7 +11907,7 @@
         <v>0.6934766373208</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
       <c r="B81" s="52" t="s">
         <v>169</v>
@@ -12036,7 +12036,7 @@
         <v>1.8787752825308</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="52" t="s">
         <v>170</v>
@@ -12165,7 +12165,7 @@
         <v>2.0423411786451</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="56"/>
       <c r="B83" s="52" t="s">
         <v>171</v>
@@ -12294,7 +12294,7 @@
         <v>2.6032828527485101</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
       <c r="B84" s="68" t="s">
         <v>172</v>
@@ -12423,7 +12423,7 @@
         <v>3.2043192142861701</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="56"/>
       <c r="B85" s="72" t="s">
         <v>173</v>
@@ -12552,7 +12552,7 @@
         <v>3.0344500056849601</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
       <c r="B86" s="52" t="s">
         <v>174</v>
@@ -12681,7 +12681,7 @@
         <v>2.0661137956470701</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
       <c r="B87" s="52" t="s">
         <v>175</v>
@@ -12810,7 +12810,7 @@
         <v>4.9088414110313003</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
       <c r="B88" s="52" t="s">
         <v>176</v>
@@ -12939,7 +12939,7 @@
         <v>0.78290301604437995</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
       <c r="B89" s="52" t="s">
         <v>177</v>
@@ -13068,7 +13068,7 @@
         <v>3.1009509716380701</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="56"/>
       <c r="B90" s="64" t="s">
         <v>178</v>
@@ -13197,7 +13197,7 @@
         <v>1.74305613215164</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" s="56"/>
       <c r="B91" s="52" t="s">
         <v>179</v>
@@ -13326,7 +13326,7 @@
         <v>2.8929229836373702</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="52" t="s">
         <v>180</v>
@@ -13455,7 +13455,7 @@
         <v>4.7904125240803701</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
       <c r="B93" s="52" t="s">
         <v>181</v>
@@ -13584,7 +13584,7 @@
         <v>2.3497031528419798</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
       <c r="B94" s="52" t="s">
         <v>182</v>
@@ -13713,7 +13713,7 @@
         <v>3.1843404051025201</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
       <c r="B95" s="52" t="s">
         <v>183</v>
@@ -13842,7 +13842,7 @@
         <v>3.15389422373564</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="56"/>
       <c r="B96" s="52" t="s">
         <v>184</v>
@@ -13971,7 +13971,7 @@
         <v>2.4619413676048301</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" s="56"/>
       <c r="B97" s="68" t="s">
         <v>185</v>
@@ -14100,7 +14100,7 @@
         <v>2.19021934909716</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="56"/>
       <c r="B98" s="64" t="s">
         <v>186</v>
@@ -14229,7 +14229,7 @@
         <v>3.1745585779082499</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99" s="73"/>
       <c r="B99" s="74"/>
       <c r="C99" s="75"/>
@@ -14274,7 +14274,7 @@
       <c r="AP99" s="75"/>
       <c r="AQ99" s="75"/>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
@@ -14320,7 +14320,7 @@
       <c r="AP100" s="76"/>
       <c r="AQ100" s="76"/>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>188</v>
       </c>
@@ -14366,7 +14366,7 @@
       <c r="AP101" s="76"/>
       <c r="AQ101" s="76"/>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>189</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="AP102" s="76"/>
       <c r="AQ102" s="76"/>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>190</v>
       </c>
@@ -14458,7 +14458,7 @@
       <c r="AP103" s="76"/>
       <c r="AQ103" s="76"/>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>191</v>
       </c>
@@ -14504,7 +14504,7 @@
       <c r="AP104" s="76"/>
       <c r="AQ104" s="76"/>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>192</v>
       </c>
@@ -14550,7 +14550,7 @@
       <c r="AP105" s="76"/>
       <c r="AQ105" s="76"/>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
@@ -14593,7 +14593,7 @@
       <c r="AP106" s="76"/>
       <c r="AQ106" s="76"/>
     </row>
-    <row r="107" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="77" t="s">
         <v>193</v>
       </c>
@@ -14639,7 +14639,7 @@
       <c r="AP107" s="76"/>
       <c r="AQ107" s="76"/>
     </row>
-    <row r="108" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="77"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -14683,7 +14683,7 @@
       <c r="AP108" s="76"/>
       <c r="AQ108" s="76"/>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>195</v>
       </c>
@@ -14729,7 +14729,7 @@
       <c r="AP109" s="76"/>
       <c r="AQ109" s="76"/>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>196</v>
       </c>
@@ -14775,7 +14775,7 @@
       <c r="AP110" s="76"/>
       <c r="AQ110" s="76"/>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B111" s="81" t="s">
         <v>197</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="AP111" s="76"/>
       <c r="AQ111" s="76"/>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>194</v>
       </c>
@@ -14867,7 +14867,7 @@
       <c r="AP112" s="76"/>
       <c r="AQ112" s="76"/>
     </row>
-    <row r="113" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -14911,7 +14911,7 @@
       <c r="AP113" s="76"/>
       <c r="AQ113" s="76"/>
     </row>
-    <row r="114" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="76"/>
       <c r="D114" s="76"/>
@@ -14954,17 +14954,17 @@
       <c r="AO114" s="76"/>
       <c r="AP114" s="76"/>
     </row>
-    <row r="115" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B115" s="78"/>
       <c r="C115" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1083E6CD-4603-4048-B176-15A5A584B567}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8A0707F9-AEE9-4FAE-9DF7-A1EB8714D540}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{E0E16E3D-BB40-4DD5-9B04-B62C2E5936EA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{2166E6A7-6A71-41EF-A607-A6D2954D8AE7}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{4D54A9CA-237A-4ADA-87DE-99020CD4885C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B5C93C93-745F-420A-A4CB-301A189D1D6E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{64C4C041-49FF-4FAB-ACE4-90DB8ECC3E58}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{2C1943F9-3D48-4C3B-9573-12BAA7D68F67}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{31E31280-6924-4458-8D76-E6062366DF5A}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{34884836-DF49-42E8-A95D-C511453250E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4221B23-4553-4512-81D1-77B406EDAE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA6DE35-D3B3-4A83-96C5-077944FA2870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6E2A6C23-09CD-4FE0-9000-E5663A7F9C08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A351B40-8F0A-465A-8A6F-C9226447E80D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="200">
   <si>
     <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990‑2029</t>
   </si>
@@ -534,13 +534,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1532,7 +1538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A0840A-458F-4F35-B9D8-E72D9333ACD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C43E91C-9549-4E65-B327-6D966A218398}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11004,7 +11010,7 @@
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
       <c r="B74" s="51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="60">
         <v>0.38273758670708002</v>
@@ -11133,7 +11139,7 @@
     <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="52">
         <v>-4.7105185535671996</v>
@@ -11262,7 +11268,7 @@
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="B76" s="67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C76" s="68">
         <v>6.2493174397930904</v>
@@ -11391,7 +11397,7 @@
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
       <c r="B77" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C77" s="60">
         <v>-3.081027215542</v>
@@ -11520,7 +11526,7 @@
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
       <c r="B78" s="51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C78" s="60">
         <v>2.4127215536507798</v>
@@ -11649,7 +11655,7 @@
     <row r="79" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
       <c r="B79" s="63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C79" s="64">
         <v>2.1234553481601601</v>
@@ -11778,7 +11784,7 @@
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C80" s="60">
         <v>-1.1655917590931999</v>
@@ -11907,7 +11913,7 @@
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C81" s="60">
         <v>9.6648761888637296</v>
@@ -12036,7 +12042,7 @@
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
       <c r="B82" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" s="60">
         <v>-1.0536242880236999</v>
@@ -12165,7 +12171,7 @@
     <row r="83" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55"/>
       <c r="B83" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C83" s="52">
         <v>1.3541222968828399</v>
@@ -12294,7 +12300,7 @@
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
       <c r="B84" s="67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="68">
         <v>-1.5531330950152999</v>
@@ -12423,7 +12429,7 @@
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
       <c r="B85" s="71" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C85" s="60">
         <v>8.0383400551475201</v>
@@ -12552,7 +12558,7 @@
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
       <c r="B86" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C86" s="60">
         <v>-0.71906175215250001</v>
@@ -12681,7 +12687,7 @@
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
       <c r="B87" s="51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C87" s="60">
         <v>4.1535500483872196</v>
@@ -12810,7 +12816,7 @@
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
       <c r="B88" s="51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" s="60">
         <v>-1.8861517525825</v>
@@ -12939,7 +12945,7 @@
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
       <c r="B89" s="51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C89" s="60">
         <v>1.65874576642699</v>
@@ -13068,7 +13074,7 @@
     <row r="90" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55"/>
       <c r="B90" s="63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" s="64">
         <v>2.4178354154436201</v>
@@ -13197,7 +13203,7 @@
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
       <c r="B91" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C91" s="60">
         <v>-1.2841128744387</v>
@@ -13326,7 +13332,7 @@
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
       <c r="B92" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C92" s="60">
         <v>2.78076212940364</v>
@@ -13455,7 +13461,7 @@
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
       <c r="B93" s="51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C93" s="60">
         <v>4.5314330887751897</v>
@@ -13584,7 +13590,7 @@
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
       <c r="B94" s="51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" s="60">
         <v>2.3336938203774098</v>
@@ -13713,7 +13719,7 @@
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
       <c r="B95" s="51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C95" s="60">
         <v>0.60666096825969995</v>
@@ -13842,7 +13848,7 @@
     <row r="96" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55"/>
       <c r="B96" s="51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" s="52">
         <v>2.01698375285395</v>
@@ -13971,7 +13977,7 @@
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C97" s="68">
         <v>-0.44215048702260001</v>
@@ -14100,7 +14106,7 @@
     <row r="98" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C98" s="64">
         <v>5.8840029652699002</v>
@@ -14273,7 +14279,7 @@
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C100" s="75"/>
       <c r="D100" s="75"/>
@@ -14319,7 +14325,7 @@
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C101" s="75"/>
       <c r="D101" s="75"/>
@@ -14365,7 +14371,7 @@
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C102" s="75"/>
       <c r="D102" s="75"/>
@@ -14411,7 +14417,7 @@
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C103" s="75"/>
       <c r="D103" s="75"/>
@@ -14457,7 +14463,7 @@
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C104" s="75"/>
       <c r="D104" s="75"/>
@@ -14503,7 +14509,7 @@
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C105" s="75"/>
       <c r="D105" s="75"/>
@@ -14592,7 +14598,7 @@
     </row>
     <row r="107" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C107" s="75"/>
       <c r="D107" s="75"/>
@@ -14682,7 +14688,7 @@
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C109" s="75"/>
       <c r="D109" s="75"/>
@@ -14728,7 +14734,7 @@
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C110" s="75"/>
       <c r="D110" s="75"/>
@@ -14774,7 +14780,7 @@
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B111" s="77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C111" s="75"/>
       <c r="D111" s="75"/>
@@ -14820,7 +14826,7 @@
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B112" s="77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C112" s="75"/>
       <c r="D112" s="75"/>
@@ -14957,11 +14963,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4FC81D31-3F0C-4417-8686-0D0FC85682C1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{22ABB4D1-5220-4927-B5A1-9C7F5F618CFE}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{306CF4D7-A13D-410A-B328-ABA4CF72D1E0}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{179059B6-93C8-48CB-A42D-50FEC3BD512B}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{A5B78A40-AF11-4DE4-8F4C-070C73EDC7F3}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A6DAE302-2A3D-4946-A0D7-A38D2D3CE2D3}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FA2AA57C-5B85-41DB-93AF-0169236E58F7}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{95C08B1D-5438-42A8-BD76-7350CD0AC55D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1EE2934C-0B8C-427B-BB12-5573C19A7E8F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5CEFC43A-2ABC-47C2-8F8F-428190040A58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
